--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_223.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_223.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,628 +488,642 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>[['G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(16.84, 21.54)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(62.02, 71.86)]</t>
+          <t>[('0:01:03.100000', '0:01:10.340000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:06.060000', '0:01:08.180000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1319148936170213</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(111.92, 115.36)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(3.988594, 7.754783)]</t>
+          <t>[('0:01:58.400000', '0:02:02.040000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>[('0:01:57.540000', '0:02:02.700000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2753623188405797</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(34.86, 42.08)]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(102.16, 113.9)]</t>
+          <t>[('0:00:10.880000', '0:00:22.200000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:00.300000', '0:00:04.800000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(11.62, 15.6)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(32.2, 33.7)]</t>
+          <t>[('0:00:17.180000', '0:00:48.160000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:39.020000', '0:00:57.200000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.07480106100795755</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C']]</t>
-        </is>
+          <t>isophonics_146</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4833333333333333</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A:maj6']]</t>
+          <t>[['A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(65.02, 68.08)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(4.511043, 10.664331)]</t>
+          <t>[('0:00:05.915850', '0:00:17.734807')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
-        </is>
-      </c>
+          <t>[('0:02:08.540000', '0:02:13.900000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(36.6, 39.0)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(41.32, 46.64)]</t>
+          <t>[('0:00:06.980000', '0:00:20.820000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:19.780000', '0:00:25.820000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min']]</t>
-        </is>
+          <t>isophonics_223</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1229096989966555</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(36.18, 37.98)]</t>
+          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(13.42, 17.82)]</t>
+          <t>[('0:00:00.440395', '0:00:07.142059')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:46.600000', '0:00:49.040000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
-        </is>
+          <t>jaah_30</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>jaah_29</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4452380952380952</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
+          <t>[['Bb:7', 'Bb:7', 'Eb', 'Eb', 'Bb:7', 'Bb:7', 'Eb', 'Eb', 'C:7', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(2.7, 109.5)]</t>
+          <t>[['Ab:7', 'Ab:7', 'Db', 'Db', 'Ab:7', 'Ab:7', 'Db', 'Db', 'Bb:7', 'Bb:7', 'Eb:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(0.78, 98.82)]</t>
+          <t>[('0:01:37.710000', '0:01:47.670000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:19.820000', '0:01:30.460000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(16.04, 21.0)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(76.56, 94.12)]</t>
+          <t>[('0:00:01.540000', '0:02:18.860000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:01.440000', '0:02:06.440000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
-        </is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1177257525083612</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D#:7', 'G#:maj/D#', 'D#:7', 'G#:maj']]</t>
+          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(93.3, 103.06)]</t>
+          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(108.54, 120.72)]</t>
+          <t>[('0:00:42.880000', '0:00:45.100000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:02.980000', '0:00:06.700000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_190</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_204</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(40.38, 42.28)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[('0:00:41', '0:00:45.320000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:43.100000', '0:00:47.740000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(122.78, 125.0)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(68.08, 87.32)]</t>
+          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:15.260000', '0:00:45.460000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.07728085867620751</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:7', 'D#:min'], ['D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(80.2, 86.86), (13.12, 19.96)]</t>
+          <t>[['F:min/G#', 'G:hdim7/C#', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(8.26, 12.96), (0.36, 5.06)]</t>
+          <t>[('0:00:11.940000', '0:00:17.600000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:45.400000', '0:02:03.260000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_64</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.09779367918902802</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(3.1, 5.58), (0.5, 3.9)]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(74.8, 81.06), (25.48, 32.76)]</t>
+          <t>[('0:01:48.280000', '0:02:00.520000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:37.540000', '0:00:45.380000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
@@ -1113,92 +1132,44 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(34.94, 36.86)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(12.78, 16.74)]</t>
+          <t>[('0:02:40.020000', '0:02:44.860000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_3</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_223</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1854395604395604</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G/3', 'D', 'G', 'D/3', 'E:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A', 'E', 'F#:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(24.934603, 30.472562)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(5.045102, 12.823786)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
-        </is>
-      </c>
+          <t>[('0:02:32.440000', '0:02:37.160000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
